--- a/runs/run770/NotionalETEOutput770.xlsx
+++ b/runs/run770/NotionalETEOutput770.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_SOMERSAULT1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_46.MISSILE_ANGERMAX0_46</t>
+    <t>MISSILE_SOMERSAULT1_303.MISSILE_SOMERSAULT1_303</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_SOMERSAULT1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1437.050615495715</v>
+        <v>-1504.429974743637</v>
       </c>
       <c r="J2">
-        <v>2098.75897885128</v>
+        <v>1942.089024538276</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1407.057425018208</v>
+        <v>-1488.543820287786</v>
       </c>
       <c r="J3">
-        <v>2039.117071616216</v>
+        <v>1952.428052463799</v>
       </c>
       <c r="K3">
-        <v>304.7449038811445</v>
+        <v>306.1152974196641</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1386.568954477763</v>
+        <v>-1447.985864326119</v>
       </c>
       <c r="J4">
-        <v>1850.471810273128</v>
+        <v>1829.808297085307</v>
       </c>
       <c r="K4">
-        <v>601.1009702808658</v>
+        <v>601.0421134570623</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1462.525200181705</v>
+        <v>-1461.649972212777</v>
       </c>
       <c r="J5">
-        <v>1777.315172262563</v>
+        <v>1799.190246360585</v>
       </c>
       <c r="K5">
-        <v>908.2429442750552</v>
+        <v>834.9715742472177</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1361.577356661755</v>
+        <v>-1378.769684397037</v>
       </c>
       <c r="J6">
-        <v>1794.44823116047</v>
+        <v>1725.495390267127</v>
       </c>
       <c r="K6">
-        <v>1176.794886955472</v>
+        <v>1081.060881160224</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1343.971420129236</v>
+        <v>-1326.688482338603</v>
       </c>
       <c r="J7">
-        <v>1791.202569500489</v>
+        <v>1708.529181480144</v>
       </c>
       <c r="K7">
-        <v>1349.664387685761</v>
+        <v>1301.347906965817</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1315.494136547446</v>
+        <v>-1329.010046862482</v>
       </c>
       <c r="J8">
-        <v>1629.595225947449</v>
+        <v>1691.487237156168</v>
       </c>
       <c r="K8">
-        <v>1613.835766491793</v>
+        <v>1662.128761023146</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.20763057834102</v>
+        <v>-96.41642135728222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1271.85815402206</v>
+        <v>-1315.302581825461</v>
       </c>
       <c r="J9">
-        <v>1732.529042601687</v>
+        <v>1682.841729836869</v>
       </c>
       <c r="K9">
-        <v>1896.579015145353</v>
+        <v>1888.563718146363</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>208.81592202884</v>
+        <v>226.5166862642561</v>
       </c>
       <c r="G10">
-        <v>-85.59407816733803</v>
+        <v>-82.71643007010312</v>
       </c>
       <c r="H10">
-        <v>838.9006290202052</v>
+        <v>838.3570057677515</v>
       </c>
       <c r="I10">
-        <v>-1270.413086918505</v>
+        <v>-1291.454053251439</v>
       </c>
       <c r="J10">
-        <v>1685.459769302555</v>
+        <v>1680.12473310269</v>
       </c>
       <c r="K10">
-        <v>1961.841329866854</v>
+        <v>1929.112296977166</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.5437488340161</v>
+        <v>161.9970583103426</v>
       </c>
       <c r="G11">
-        <v>-69.12769765967437</v>
+        <v>-65.38957822682347</v>
       </c>
       <c r="H11">
-        <v>1034.193646299882</v>
+        <v>1037.364182818322</v>
       </c>
       <c r="I11">
-        <v>-1160.013525937674</v>
+        <v>-1251.308018957414</v>
       </c>
       <c r="J11">
-        <v>1520.256564329508</v>
+        <v>1493.931830208838</v>
       </c>
       <c r="K11">
-        <v>2226.356841675244</v>
+        <v>2230.593528995641</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.9609852962817</v>
+        <v>133.3496133789105</v>
       </c>
       <c r="G12">
-        <v>-52.64584192896167</v>
+        <v>-51.37265436339374</v>
       </c>
       <c r="H12">
-        <v>1187.356066278705</v>
+        <v>1228.132493689332</v>
       </c>
       <c r="I12">
-        <v>-1216.9376468047</v>
+        <v>-1170.402822777461</v>
       </c>
       <c r="J12">
-        <v>1522.620025168457</v>
+        <v>1510.509622887429</v>
       </c>
       <c r="K12">
-        <v>2356.541049493592</v>
+        <v>2258.652814452704</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.9901704098735</v>
+        <v>121.6077636206352</v>
       </c>
       <c r="G13">
-        <v>-34.25872622197136</v>
+        <v>-33.31610256607721</v>
       </c>
       <c r="H13">
-        <v>1236.910208480875</v>
+        <v>1300.308888409918</v>
       </c>
       <c r="I13">
-        <v>-1089.68786938678</v>
+        <v>-1169.662372412917</v>
       </c>
       <c r="J13">
-        <v>1500.719078392246</v>
+        <v>1454.120699488377</v>
       </c>
       <c r="K13">
-        <v>2399.304803730743</v>
+        <v>2597.858732056435</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.4353144503784</v>
+        <v>110.9161131501454</v>
       </c>
       <c r="G14">
-        <v>-17.04888837492463</v>
+        <v>-17.54634067328268</v>
       </c>
       <c r="H14">
-        <v>1375.358557726853</v>
+        <v>1279.933120889146</v>
       </c>
       <c r="I14">
-        <v>-1143.805602724542</v>
+        <v>-1102.056103122059</v>
       </c>
       <c r="J14">
-        <v>1475.930172448369</v>
+        <v>1465.950710116587</v>
       </c>
       <c r="K14">
-        <v>2702.319919315789</v>
+        <v>2601.405881852487</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.3338098301841</v>
+        <v>101.936287069612</v>
       </c>
       <c r="G15">
-        <v>-0.9496414029923618</v>
+        <v>-0.8909358100013212</v>
       </c>
       <c r="H15">
-        <v>1400.534130081627</v>
+        <v>1381.715453657162</v>
       </c>
       <c r="I15">
-        <v>-1031.953804407595</v>
+        <v>-1059.276146947077</v>
       </c>
       <c r="J15">
-        <v>1329.303105258807</v>
+        <v>1416.348485812396</v>
       </c>
       <c r="K15">
-        <v>2747.377690789088</v>
+        <v>2708.721569451332</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.84500525841905</v>
+        <v>96.21037531336313</v>
       </c>
       <c r="G16">
-        <v>15.36070346929289</v>
+        <v>15.31415910309296</v>
       </c>
       <c r="H16">
-        <v>1488.583979614586</v>
+        <v>1495.129545693525</v>
       </c>
       <c r="I16">
-        <v>-981.6921040620365</v>
+        <v>-976.79705961683</v>
       </c>
       <c r="J16">
-        <v>1296.733401338273</v>
+        <v>1358.482492029061</v>
       </c>
       <c r="K16">
-        <v>2750.422936411949</v>
+        <v>2940.071515853771</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.84202463928533</v>
+        <v>87.53842856558504</v>
       </c>
       <c r="G17">
-        <v>32.87947478302166</v>
+        <v>30.77540204896928</v>
       </c>
       <c r="H17">
-        <v>1474.986315115513</v>
+        <v>1455.750398018906</v>
       </c>
       <c r="I17">
-        <v>-970.7616498556605</v>
+        <v>-930.5609643920035</v>
       </c>
       <c r="J17">
-        <v>1287.519934686124</v>
+        <v>1307.811878909077</v>
       </c>
       <c r="K17">
-        <v>3108.339837546077</v>
+        <v>2985.122233118323</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.88243877682015</v>
+        <v>85.04259324605614</v>
       </c>
       <c r="G18">
-        <v>48.66403612562758</v>
+        <v>46.67490351532233</v>
       </c>
       <c r="H18">
-        <v>1488.53789794265</v>
+        <v>1529.658702840201</v>
       </c>
       <c r="I18">
-        <v>-970.3420829052263</v>
+        <v>-944.6429411279507</v>
       </c>
       <c r="J18">
-        <v>1262.155442032129</v>
+        <v>1233.643385608379</v>
       </c>
       <c r="K18">
-        <v>3083.351540545226</v>
+        <v>3134.094868750929</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.73708323596385</v>
+        <v>79.26789346940997</v>
       </c>
       <c r="G19">
-        <v>62.93168831453921</v>
+        <v>62.65465914625216</v>
       </c>
       <c r="H19">
-        <v>1483.722924373344</v>
+        <v>1543.718877122903</v>
       </c>
       <c r="I19">
-        <v>-875.7333666036022</v>
+        <v>-919.7299736661962</v>
       </c>
       <c r="J19">
-        <v>1209.526294622049</v>
+        <v>1136.09386953778</v>
       </c>
       <c r="K19">
-        <v>3143.856401036736</v>
+        <v>3255.593502541408</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.93348846355951</v>
+        <v>71.50805298782292</v>
       </c>
       <c r="G20">
-        <v>82.68722915530098</v>
+        <v>78.55719168954383</v>
       </c>
       <c r="H20">
-        <v>1519.810287906294</v>
+        <v>1496.265162757029</v>
       </c>
       <c r="I20">
-        <v>-833.5905946779799</v>
+        <v>-799.5727262297052</v>
       </c>
       <c r="J20">
-        <v>1164.325900988493</v>
+        <v>1123.563893891352</v>
       </c>
       <c r="K20">
-        <v>3095.379175620719</v>
+        <v>3236.163913168106</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.49971849461794</v>
+        <v>68.25372457870333</v>
       </c>
       <c r="G21">
-        <v>99.27555915558477</v>
+        <v>99.71151787208993</v>
       </c>
       <c r="H21">
-        <v>1515.645595637885</v>
+        <v>1553.95604328789</v>
       </c>
       <c r="I21">
-        <v>-815.1527984607263</v>
+        <v>-782.0897296489721</v>
       </c>
       <c r="J21">
-        <v>1040.069022865735</v>
+        <v>1095.275178110296</v>
       </c>
       <c r="K21">
-        <v>3101.982368862648</v>
+        <v>3268.773162799852</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.97573078043793</v>
+        <v>70.95061845955074</v>
       </c>
       <c r="G22">
-        <v>119.1441844825844</v>
+        <v>110.0470542143871</v>
       </c>
       <c r="H22">
-        <v>1638.988207717585</v>
+        <v>1567.042943028632</v>
       </c>
       <c r="I22">
-        <v>-773.1935771403538</v>
+        <v>-714.4265635636032</v>
       </c>
       <c r="J22">
-        <v>1016.231457781919</v>
+        <v>1048.492665443136</v>
       </c>
       <c r="K22">
-        <v>3199.635220739538</v>
+        <v>3170.866099394247</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.23654312810486</v>
+        <v>67.28712540792316</v>
       </c>
       <c r="G23">
-        <v>136.974715306713</v>
+        <v>136.3637888516184</v>
       </c>
       <c r="H23">
-        <v>1587.611121589426</v>
+        <v>1630.727720569867</v>
       </c>
       <c r="I23">
-        <v>-724.4703692729614</v>
+        <v>-732.2439776171449</v>
       </c>
       <c r="J23">
-        <v>969.1581557416583</v>
+        <v>993.0238941825651</v>
       </c>
       <c r="K23">
-        <v>3311.287069611765</v>
+        <v>3165.286452995542</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.69194345733712</v>
+        <v>63.2221631359153</v>
       </c>
       <c r="G24">
-        <v>143.8303391752973</v>
+        <v>150.0074254608807</v>
       </c>
       <c r="H24">
-        <v>1699.02227424345</v>
+        <v>1683.256820667307</v>
       </c>
       <c r="I24">
-        <v>-659.4498408208133</v>
+        <v>-675.2779067044263</v>
       </c>
       <c r="J24">
-        <v>903.2382217574237</v>
+        <v>913.9136952377324</v>
       </c>
       <c r="K24">
-        <v>3089.575830017912</v>
+        <v>3080.937279811301</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.40184257671207</v>
+        <v>58.83132222993905</v>
       </c>
       <c r="G25">
-        <v>169.9854631585797</v>
+        <v>169.7166146553651</v>
       </c>
       <c r="H25">
-        <v>1645.212392453101</v>
+        <v>1614.22897179211</v>
       </c>
       <c r="I25">
-        <v>-624.9404822874054</v>
+        <v>-613.3013014492988</v>
       </c>
       <c r="J25">
-        <v>915.0969952311237</v>
+        <v>908.2557164913396</v>
       </c>
       <c r="K25">
-        <v>3258.001475876314</v>
+        <v>3112.615031322762</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.75941545518785</v>
+        <v>61.56046172836309</v>
       </c>
       <c r="G26">
-        <v>186.4953751128224</v>
+        <v>173.7883012744807</v>
       </c>
       <c r="H26">
-        <v>1711.425491424568</v>
+        <v>1764.323238578451</v>
       </c>
       <c r="I26">
-        <v>-543.2489508071577</v>
+        <v>-546.6163162872264</v>
       </c>
       <c r="J26">
-        <v>828.10989455245</v>
+        <v>846.0519973818962</v>
       </c>
       <c r="K26">
-        <v>3098.160000095065</v>
+        <v>2997.332354791413</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.14397828108633</v>
+        <v>59.10943767313394</v>
       </c>
       <c r="G27">
-        <v>204.2614637478533</v>
+        <v>197.807052406655</v>
       </c>
       <c r="H27">
-        <v>1790.224137615143</v>
+        <v>1746.045940254418</v>
       </c>
       <c r="I27">
-        <v>-470.908385727367</v>
+        <v>-507.1455744397858</v>
       </c>
       <c r="J27">
-        <v>808.7028379566326</v>
+        <v>804.4355622692168</v>
       </c>
       <c r="K27">
-        <v>2995.421358191393</v>
+        <v>2974.997473195174</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.36647437025258</v>
+        <v>53.77492680940584</v>
       </c>
       <c r="G28">
-        <v>217.2670971826142</v>
+        <v>203.2371051191113</v>
       </c>
       <c r="H28">
-        <v>1736.917239307339</v>
+        <v>1804.735707054902</v>
       </c>
       <c r="I28">
-        <v>-432.0327609320465</v>
+        <v>-440.2344461923132</v>
       </c>
       <c r="J28">
-        <v>756.4380887257113</v>
+        <v>752.4130033597834</v>
       </c>
       <c r="K28">
-        <v>3002.441201317747</v>
+        <v>3027.246726107327</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.65439526072876</v>
+        <v>54.58462339854411</v>
       </c>
       <c r="G29">
-        <v>239.9042167691936</v>
+        <v>237.9562125513661</v>
       </c>
       <c r="H29">
-        <v>1816.393237558101</v>
+        <v>1765.658032129526</v>
       </c>
       <c r="I29">
-        <v>-371.0706683227304</v>
+        <v>-397.8821426108999</v>
       </c>
       <c r="J29">
-        <v>692.4893510149283</v>
+        <v>660.2685171128055</v>
       </c>
       <c r="K29">
-        <v>2764.115979294037</v>
+        <v>2884.300403510757</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.25118807688084</v>
+        <v>52.63691768055021</v>
       </c>
       <c r="G30">
-        <v>256.3432498657677</v>
+        <v>236.5449994229641</v>
       </c>
       <c r="H30">
-        <v>1676.17026081069</v>
+        <v>1684.780638883605</v>
       </c>
       <c r="I30">
-        <v>-326.5050053656769</v>
+        <v>-314.800297351178</v>
       </c>
       <c r="J30">
-        <v>644.034357188519</v>
+        <v>654.6504898479785</v>
       </c>
       <c r="K30">
-        <v>2683.517559315191</v>
+        <v>2723.63792546753</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.92392407354524</v>
+        <v>50.67810551076226</v>
       </c>
       <c r="G31">
-        <v>257.6602488927692</v>
+        <v>263.2331516164052</v>
       </c>
       <c r="H31">
-        <v>1801.809511082829</v>
+        <v>1840.4663057534</v>
       </c>
       <c r="I31">
-        <v>-271.315112144097</v>
+        <v>-276.7841459127491</v>
       </c>
       <c r="J31">
-        <v>580.859085170247</v>
+        <v>609.3337151514086</v>
       </c>
       <c r="K31">
-        <v>2585.51302367417</v>
+        <v>2754.601384310653</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.9241664196942</v>
+        <v>48.80943802425904</v>
       </c>
       <c r="G32">
-        <v>292.5868856385686</v>
+        <v>267.0079035479196</v>
       </c>
       <c r="H32">
-        <v>1744.600506433061</v>
+        <v>1857.993596168822</v>
       </c>
       <c r="I32">
-        <v>-214.7098051794684</v>
+        <v>-206.7408979563792</v>
       </c>
       <c r="J32">
-        <v>539.2563192770949</v>
+        <v>523.1334362389151</v>
       </c>
       <c r="K32">
-        <v>2544.416396813945</v>
+        <v>2445.210459434421</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.49028297088457</v>
+        <v>51.40400201791514</v>
       </c>
       <c r="G33">
-        <v>289.6183019597926</v>
+        <v>282.0508867035815</v>
       </c>
       <c r="H33">
-        <v>1863.168208632016</v>
+        <v>1769.831456912953</v>
       </c>
       <c r="I33">
-        <v>-139.7539443614943</v>
+        <v>-152.1417886375593</v>
       </c>
       <c r="J33">
-        <v>489.8359517002449</v>
+        <v>494.1193517459176</v>
       </c>
       <c r="K33">
-        <v>2271.670828862601</v>
+        <v>2298.216412497039</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.13159068535199</v>
+        <v>49.88031049733969</v>
       </c>
       <c r="G34">
-        <v>309.1669010054175</v>
+        <v>307.9931931830208</v>
       </c>
       <c r="H34">
-        <v>1766.240737408735</v>
+        <v>1813.2820799076</v>
       </c>
       <c r="I34">
-        <v>-79.28844282707661</v>
+        <v>-82.85441194082475</v>
       </c>
       <c r="J34">
-        <v>445.2075171197392</v>
+        <v>457.8080836064485</v>
       </c>
       <c r="K34">
-        <v>2156.588172136055</v>
+        <v>2103.02792288496</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.83743687476266</v>
+        <v>47.98516157051991</v>
       </c>
       <c r="G35">
-        <v>343.1954673156765</v>
+        <v>312.896554376398</v>
       </c>
       <c r="H35">
-        <v>1796.352652273717</v>
+        <v>1882.470715715935</v>
       </c>
       <c r="I35">
-        <v>-18.66897054232112</v>
+        <v>-19.19425669395981</v>
       </c>
       <c r="J35">
-        <v>404.8881276252063</v>
+        <v>408.4981818139909</v>
       </c>
       <c r="K35">
-        <v>2070.665201465497</v>
+        <v>1948.367278857904</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.98527352554613</v>
+        <v>46.54551349160973</v>
       </c>
       <c r="G36">
-        <v>354.1806484986975</v>
+        <v>358.5610587695891</v>
       </c>
       <c r="H36">
-        <v>1749.747240233946</v>
+        <v>1782.012661525072</v>
       </c>
       <c r="I36">
-        <v>45.16635499213027</v>
+        <v>49.33937973622039</v>
       </c>
       <c r="J36">
-        <v>345.9371890013442</v>
+        <v>340.4332753157623</v>
       </c>
       <c r="K36">
-        <v>1777.484665014685</v>
+        <v>1742.038076313428</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.60417206327107</v>
+        <v>48.04621552107707</v>
       </c>
       <c r="G37">
-        <v>370.4451255349439</v>
+        <v>357.9444715196587</v>
       </c>
       <c r="H37">
-        <v>1762.827560723285</v>
+        <v>1848.084169125746</v>
       </c>
       <c r="I37">
-        <v>112.6448398318196</v>
+        <v>112.048183726842</v>
       </c>
       <c r="J37">
-        <v>282.8512323793313</v>
+        <v>309.1857299871826</v>
       </c>
       <c r="K37">
-        <v>1554.126142664475</v>
+        <v>1688.595182363229</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.49565078400896</v>
+        <v>47.18972154721552</v>
       </c>
       <c r="G38">
-        <v>377.6751858361434</v>
+        <v>367.2792943611588</v>
       </c>
       <c r="H38">
-        <v>1933.089690497982</v>
+        <v>1910.628879566482</v>
       </c>
       <c r="I38">
-        <v>180.1399243605611</v>
+        <v>181.4972169376539</v>
       </c>
       <c r="J38">
-        <v>241.5724098897896</v>
+        <v>249.595651677374</v>
       </c>
       <c r="K38">
-        <v>1362.104932507812</v>
+        <v>1440.24926017571</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.47988971332875</v>
+        <v>43.83871127592646</v>
       </c>
       <c r="G39">
-        <v>406.0352546389065</v>
+        <v>414.7889680086234</v>
       </c>
       <c r="H39">
-        <v>1951.848101356892</v>
+        <v>1817.378542965823</v>
       </c>
       <c r="I39">
-        <v>262.9160555523255</v>
+        <v>254.7523052445138</v>
       </c>
       <c r="J39">
-        <v>190.7957253035242</v>
+        <v>196.1377146563645</v>
       </c>
       <c r="K39">
-        <v>1144.105738229822</v>
+        <v>1140.726240898352</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.06018132925092</v>
+        <v>44.68128347330763</v>
       </c>
       <c r="G40">
-        <v>418.6628164132478</v>
+        <v>426.5980085062036</v>
       </c>
       <c r="H40">
-        <v>1955.523588868532</v>
+        <v>1785.304794261305</v>
       </c>
       <c r="I40">
-        <v>324.5108244569819</v>
+        <v>331.096818096225</v>
       </c>
       <c r="J40">
-        <v>148.8088952563503</v>
+        <v>147.113628637812</v>
       </c>
       <c r="K40">
-        <v>935.5112027690689</v>
+        <v>892.0297933946554</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.53815783539402</v>
+        <v>42.09135951591266</v>
       </c>
       <c r="G41">
-        <v>440.3328335394724</v>
+        <v>426.5287720862373</v>
       </c>
       <c r="H41">
-        <v>1804.674406050797</v>
+        <v>1826.724666098013</v>
       </c>
       <c r="I41">
-        <v>418.6855061342943</v>
+        <v>414.9416176067239</v>
       </c>
       <c r="J41">
-        <v>104.5430908215258</v>
+        <v>98.08269007295493</v>
       </c>
       <c r="K41">
-        <v>642.0090099752233</v>
+        <v>653.6083743371328</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.27765370212681</v>
+        <v>44.1631813847083</v>
       </c>
       <c r="G42">
-        <v>431.0892861697013</v>
+        <v>438.8787859200413</v>
       </c>
       <c r="H42">
-        <v>1946.249359465093</v>
+        <v>1949.148057884012</v>
       </c>
       <c r="I42">
-        <v>463.7512264399972</v>
+        <v>474.330305936675</v>
       </c>
       <c r="J42">
-        <v>53.57348860995757</v>
+        <v>56.57695534348572</v>
       </c>
       <c r="K42">
-        <v>339.9915578482747</v>
+        <v>326.4376980758275</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.16486892970143</v>
+        <v>42.74229925148416</v>
       </c>
       <c r="G43">
-        <v>441.8418032125337</v>
+        <v>467.6661424969048</v>
       </c>
       <c r="H43">
-        <v>1955.720153723536</v>
+        <v>1852.989734983691</v>
       </c>
       <c r="I43">
-        <v>565.4234300342509</v>
+        <v>548.8533394272372</v>
       </c>
       <c r="J43">
-        <v>5.314716424357185</v>
+        <v>5.451301677451234</v>
       </c>
       <c r="K43">
-        <v>34.28389515392637</v>
+        <v>33.25225012507342</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.32694602836187</v>
+        <v>41.10863762893696</v>
       </c>
       <c r="G44">
-        <v>462.6577710382224</v>
+        <v>458.9388767634944</v>
       </c>
       <c r="H44">
-        <v>1915.145279990571</v>
+        <v>1983.44583421547</v>
       </c>
       <c r="I44">
-        <v>649.1334554887125</v>
+        <v>638.7168749115202</v>
       </c>
       <c r="J44">
-        <v>-42.26935292781604</v>
+        <v>-45.52226436022985</v>
       </c>
       <c r="K44">
-        <v>-274.4067959392797</v>
+        <v>-282.8630685248714</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.88847444683455</v>
+        <v>41.39518722930769</v>
       </c>
       <c r="G45">
-        <v>477.1615073142845</v>
+        <v>496.0763689607131</v>
       </c>
       <c r="H45">
-        <v>1831.332702509485</v>
+        <v>1881.592699577553</v>
       </c>
       <c r="I45">
-        <v>723.543603373778</v>
+        <v>750.2435705422812</v>
       </c>
       <c r="J45">
-        <v>-88.60256227735736</v>
+        <v>-88.94485001131956</v>
       </c>
       <c r="K45">
-        <v>-604.4767441261429</v>
+        <v>-609.2628132669265</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.49681719471216</v>
+        <v>42.16023434429204</v>
       </c>
       <c r="G46">
-        <v>520.3503713071339</v>
+        <v>508.3813651203268</v>
       </c>
       <c r="H46">
-        <v>1983.393517695649</v>
+        <v>1968.048426862116</v>
       </c>
       <c r="I46">
-        <v>804.7845196462147</v>
+        <v>806.1736298646008</v>
       </c>
       <c r="J46">
-        <v>-137.7690419289701</v>
+        <v>-134.981794656941</v>
       </c>
       <c r="K46">
-        <v>-929.7281087867289</v>
+        <v>-951.5109047468187</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.36802212669647</v>
+        <v>41.59545551590861</v>
       </c>
       <c r="G47">
-        <v>518.1411384248421</v>
+        <v>506.0719485400303</v>
       </c>
       <c r="H47">
-        <v>1939.088399754698</v>
+        <v>2027.242385800021</v>
       </c>
       <c r="I47">
-        <v>923.790671810537</v>
+        <v>916.2988583175</v>
       </c>
       <c r="J47">
-        <v>-188.9105520314038</v>
+        <v>-191.000286791877</v>
       </c>
       <c r="K47">
-        <v>-1358.729163874733</v>
+        <v>-1308.936330331031</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.27007882483189</v>
+        <v>38.10046019076243</v>
       </c>
       <c r="G48">
-        <v>538.5073101927959</v>
+        <v>522.2489565905101</v>
       </c>
       <c r="H48">
-        <v>1848.984415619706</v>
+        <v>1963.009377127713</v>
       </c>
       <c r="I48">
-        <v>973.3249015602007</v>
+        <v>979.8940213903677</v>
       </c>
       <c r="J48">
-        <v>-241.6335276468307</v>
+        <v>-242.2733189628682</v>
       </c>
       <c r="K48">
-        <v>-1676.795823044278</v>
+        <v>-1706.602774980687</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.82742535134796</v>
+        <v>37.96329638922359</v>
       </c>
       <c r="G49">
-        <v>548.6169820748582</v>
+        <v>535.8549366687662</v>
       </c>
       <c r="H49">
-        <v>2023.659466625764</v>
+        <v>1854.309484484363</v>
       </c>
       <c r="I49">
-        <v>1026.707583822218</v>
+        <v>1064.497366194277</v>
       </c>
       <c r="J49">
-        <v>-281.9259187799196</v>
+        <v>-290.3353250487003</v>
       </c>
       <c r="K49">
-        <v>-2122.325061388291</v>
+        <v>-1996.263503169479</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.7784726076406</v>
+        <v>38.38638976738424</v>
       </c>
       <c r="G50">
-        <v>595.0512653257497</v>
+        <v>573.4133637818433</v>
       </c>
       <c r="H50">
-        <v>2038.299203062886</v>
+        <v>1953.946282321502</v>
       </c>
       <c r="I50">
-        <v>1128.807545369878</v>
+        <v>1183.674786822246</v>
       </c>
       <c r="J50">
-        <v>-334.3301796766006</v>
+        <v>-319.1042898851813</v>
       </c>
       <c r="K50">
-        <v>-2386.411361420096</v>
+        <v>-2599.415620858098</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.64321623013026</v>
+        <v>37.26172566676595</v>
       </c>
       <c r="G51">
-        <v>609.0182128913501</v>
+        <v>608.7891978823744</v>
       </c>
       <c r="H51">
-        <v>1935.569860119896</v>
+        <v>2059.735790310397</v>
       </c>
       <c r="I51">
-        <v>1311.826930094235</v>
+        <v>1289.306237300161</v>
       </c>
       <c r="J51">
-        <v>-402.4596821953905</v>
+        <v>-367.8815346873635</v>
       </c>
       <c r="K51">
-        <v>-2805.890419938803</v>
+        <v>-2789.495115867564</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.30783135740629</v>
+        <v>38.70436290339475</v>
       </c>
       <c r="G52">
-        <v>620.6000284270103</v>
+        <v>623.8131992454187</v>
       </c>
       <c r="H52">
-        <v>2047.421614266686</v>
+        <v>1910.178538644175</v>
       </c>
       <c r="I52">
-        <v>1291.174554997324</v>
+        <v>1323.920189988278</v>
       </c>
       <c r="J52">
-        <v>-422.5292576991812</v>
+        <v>-453.6056613954647</v>
       </c>
       <c r="K52">
-        <v>-3246.387594065738</v>
+        <v>-3454.411551495316</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.81288052386916</v>
+        <v>37.29931592104872</v>
       </c>
       <c r="G53">
-        <v>617.5605247206591</v>
+        <v>650.4745955313653</v>
       </c>
       <c r="H53">
-        <v>1934.715080263132</v>
+        <v>1950.20832296976</v>
       </c>
       <c r="I53">
-        <v>1491.19168011903</v>
+        <v>1408.557242504442</v>
       </c>
       <c r="J53">
-        <v>-473.4006987609042</v>
+        <v>-471.8869699611906</v>
       </c>
       <c r="K53">
-        <v>-3969.864300414399</v>
+        <v>-3922.228809876252</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.19500820740924</v>
+        <v>35.64977010766271</v>
       </c>
       <c r="G54">
-        <v>618.7171972914053</v>
+        <v>672.581732030994</v>
       </c>
       <c r="H54">
-        <v>2016.741655244923</v>
+        <v>1919.478416167216</v>
       </c>
       <c r="I54">
-        <v>1568.540587596787</v>
+        <v>1628.120766467386</v>
       </c>
       <c r="J54">
-        <v>-515.6838916968347</v>
+        <v>-540.7035224758826</v>
       </c>
       <c r="K54">
-        <v>-4263.371127631437</v>
+        <v>-4195.92474764489</v>
       </c>
     </row>
   </sheetData>
